--- a/xlsx/货币主义_intext.xlsx
+++ b/xlsx/货币主义_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>货币主义</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
-  </si>
-  <si>
-    <t>政策_政策_貨幣政策_货币主义</t>
+    <t>经济学</t>
+  </si>
+  <si>
+    <t>政策_政策_货币政策_货币主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%81%A9%E6%96%AF%E4%B8%BB%E4%B9%89</t>
@@ -41,25 +41,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E5%82%85%E5%88%A9%E6%9B%BC</t>
   </si>
   <si>
-    <t>米爾頓·傅利曼</t>
+    <t>米尔顿·傅利曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%B6%93%E6%BF%9F%E5%AD%B8%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾經濟學獎</t>
+    <t>诺贝尔经济学奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
+    <t>货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A8%9C%C2%B7%E6%96%BD%E7%93%A6%E8%8C%A8</t>
@@ -77,31 +77,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E5%9B%A0%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>凱因斯主義</t>
+    <t>凯因斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%A2%85%E7%B4%8D%E5%BE%B7%C2%B7%E5%87%B1%E5%9B%A0%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·梅納德·凱因斯</t>
+    <t>约翰·梅纳德·凯因斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%BA%96%E5%82%99%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國聯邦準備理事會</t>
+    <t>美国联邦准备理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央银行</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B2%A8%E8%86%A8%E8%84%B9</t>
   </si>
   <si>
-    <t>通貨膨脹</t>
+    <t>通货膨胀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BD%93</t>
@@ -113,9 +110,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
   </si>
   <si>
-    <t>通货膨胀</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%84%E6%9C%9F%E6%95%88%E7%94%A8%E5%81%87%E8%AF%B4</t>
   </si>
   <si>
@@ -125,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E5%A5%91%E7%88%BE%E5%A4%AB%E4%BA%BA</t>
   </si>
   <si>
-    <t>柴契爾夫人</t>
+    <t>柴契尔夫人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BB%8F%E6%B5%8E%E6%80%9D%E6%83%B3%E5%8F%B2</t>
@@ -179,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%9B%BC%E5%8D%A1%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>薩拉曼卡學派</t>
+    <t>萨拉曼卡学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AD%A6%E6%B4%BE</t>
@@ -209,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%AD%B7%E5%8F%B2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>經濟歷史學派</t>
+    <t>经济历史学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%A1%91%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>洛桑學派</t>
+    <t>洛桑学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -233,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%89%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>國有社會主義</t>
+    <t>国有社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/20%E4%B8%96%E7%BA%AA</t>
@@ -251,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>奧地利經濟學派</t>
+    <t>奥地利经济学派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Carnegie_School</t>
@@ -263,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥經濟學派</t>
+    <t>芝加哥经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E5%BA%A6%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -281,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%88%B6%E5%BA%A6%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>新制度經濟學</t>
+    <t>新制度经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E5%9E%8B%E7%BB%8F%E6%B5%8E</t>
@@ -293,25 +287,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯德哥爾摩學派</t>
+    <t>斯德哥尔摩学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>公共選擇理論</t>
+    <t>公共选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>熱經濟學</t>
+    <t>热经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neo-Marxian_economics</t>
@@ -323,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E4%B8%BB%E7%BE%A9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>新古典主義經濟學</t>
+    <t>新古典主义经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%8F%A4%E5%85%B8%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新興古典經濟學派</t>
+    <t>新兴古典经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%81%A9%E6%96%AF%E4%B8%BB%E4%B9%89%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -341,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%87%B1%E6%81%A9%E6%96%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新凱恩斯學派</t>
+    <t>新凯恩斯学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%85%B4%E5%87%AF%E6%81%A9%E6%96%AF%E5%AD%A6%E6%B4%BE</t>
@@ -359,19 +353,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
   </si>
   <si>
-    <t>经济学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%B5%81%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>主流經濟學</t>
+    <t>主流经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E4%B8%BB%E6%B5%81%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>非主流經濟學</t>
+    <t>非主流经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
@@ -383,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>世界體系理論</t>
+    <t>世界体系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -395,13 +386,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%BB%8F%E6%B5%8E%E5%AD%A6%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥经济学派</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1126,7 +1114,7 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1152,10 +1140,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -1181,10 +1169,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1210,10 +1198,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -1239,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1268,10 +1256,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1297,10 +1285,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>12</v>
@@ -1326,10 +1314,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -1355,10 +1343,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1384,10 +1372,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1413,10 +1401,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1442,10 +1430,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1471,10 +1459,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1500,10 +1488,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1529,10 +1517,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1558,10 +1546,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1587,10 +1575,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1616,10 +1604,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1645,10 +1633,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>6</v>
@@ -1674,10 +1662,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -1703,10 +1691,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1732,10 +1720,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -1761,10 +1749,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1790,10 +1778,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1819,10 +1807,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>20</v>
@@ -1848,10 +1836,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1877,10 +1865,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1906,10 +1894,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1935,10 +1923,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -1964,10 +1952,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -1993,10 +1981,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2022,10 +2010,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2051,10 +2039,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2080,10 +2068,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2109,10 +2097,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2138,10 +2126,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2167,10 +2155,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2196,10 +2184,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2225,10 +2213,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2254,10 +2242,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2283,10 +2271,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>8</v>
@@ -2312,10 +2300,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2341,10 +2329,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2370,10 +2358,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2399,10 +2387,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="G57" t="n">
         <v>35</v>
@@ -2428,10 +2416,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -2457,10 +2445,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2486,10 +2474,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2515,10 +2503,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2544,10 +2532,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -2573,10 +2561,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2602,10 +2590,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2631,10 +2619,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -2660,10 +2648,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
